--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA7B8BE4-E09D-403A-9557-18BDB4272182}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2359FB2-48B1-4CE5-96DB-0D33545AC528}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,42 +306,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="9" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -761,8 +783,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="21"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="7"/>
       <c r="E1" s="1"/>
       <c r="F1" s="7"/>
@@ -771,13 +793,13 @@
       <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="7"/>
@@ -786,13 +808,13 @@
       <c r="I2" s="7"/>
       <c r="J2" s="1"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="21"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
       <c r="F3" s="7"/>
@@ -844,34 +866,34 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula xml:space="preserve"> (D1 = D1048576)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202309/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2359FB2-48B1-4CE5-96DB-0D33545AC528}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244F8377-D7FA-473B-A771-C993A1F37FD0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,15 +341,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -366,24 +358,9 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
-        <u val="none"/>
-        <color theme="8" tint="0.59996337778862885"/>
+        <color theme="9" tint="0.59996337778862885"/>
       </font>
     </dxf>
   </dxfs>
@@ -464,6 +441,10 @@
 </file>
 
 <file path=xl/persons/person22.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person23.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -885,15 +866,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula xml:space="preserve"> (D1 = D1048576)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202309/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244F8377-D7FA-473B-A771-C993A1F37FD0}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{769843F0-30B8-4D45-BD89-DC9C789C36DB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>方眼Diff © 2018-2023 nmby</t>
+    <t>方眼Diff © 2018-2024 nmby</t>
     <rPh sb="0" eb="2">
       <t>ホウガン</t>
     </rPh>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{769843F0-30B8-4D45-BD89-DC9C789C36DB}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2807876A-9139-462E-BFC4-BEAFFB0F1B56}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$H$6:$H$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -327,14 +330,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,6 +448,10 @@
 </file>
 
 <file path=xl/persons/person23.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person24.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -755,7 +762,7 @@
     <col min="5" max="5" width="2.5625" style="9"/>
     <col min="6" max="6" width="8.0625" style="10" customWidth="1"/>
     <col min="7" max="7" width="39.5625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.0625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.1875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.0625" style="8" customWidth="1"/>
     <col min="10" max="10" width="2.5625" style="9"/>
     <col min="11" max="11" width="8.0625" style="10" customWidth="1"/>
@@ -853,15 +860,15 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2807876A-9139-462E-BFC4-BEAFFB0F1B56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD729757-DDD9-4BF1-BB42-FEA125EAD7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,8 @@
             <rFont val="Consolas"/>
             <family val="3"/>
           </rPr>
-          <t>! : diffs detected
+          <t>(blank) : no diffs detected
+! : diffs detected
 ? : comparison failed
 &lt;, &gt; : not matched</t>
         </r>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD729757-DDD9-4BF1-BB42-FEA125EAD7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3829060C-4CD8-4CC9-9F01-F52F9B6DCD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -366,6 +366,27 @@
         <i val="0"/>
         <color theme="9" tint="0.59996337778862885"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="9" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,7 +772,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
@@ -874,15 +895,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula xml:space="preserve"> (D1 = D1048576)</formula>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula xml:space="preserve"> AND(D1&lt;&gt;"", E1&lt;&gt;"", F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3829060C-4CD8-4CC9-9F01-F52F9B6DCD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ECC6E3-D253-48DC-8E67-1C9D4D5EADF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -366,27 +366,6 @@
         <i val="0"/>
         <color theme="9" tint="0.59996337778862885"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
@@ -895,15 +874,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula xml:space="preserve"> AND(D1&lt;&gt;"", E1&lt;&gt;"", F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ECC6E3-D253-48DC-8E67-1C9D4D5EADF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF76162-27AE-4E43-BDB8-051B9EB50A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,6 +747,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C859564-5D6C-4ACC-B7D0-A916903628A3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -889,7 +892,8 @@
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{7131EEA8-9FCC-4204-B0A1-3EAADDA0DEEA}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF76162-27AE-4E43-BDB8-051B9EB50A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14B419-71F9-4EB0-AAEF-502A043E067C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,28 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="9" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -750,7 +771,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L6"/>
+  <dimension ref="D1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -760,7 +781,7 @@
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="1"/>
-    <col min="2" max="2" width="15.0625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5625" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5625" style="1"/>
     <col min="4" max="4" width="8.0625" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.5625" style="9"/>
@@ -774,12 +795,10 @@
     <col min="13" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" s="15"/>
-      <c r="C1" s="14"/>
+    <row r="1" spans="4:12">
       <c r="D1" s="7"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="3"/>
       <c r="I1" s="7"/>
@@ -789,12 +808,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
+    <row r="2" spans="4:12">
       <c r="D2" s="7"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
       <c r="I2" s="7"/>
@@ -804,12 +821,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
+    <row r="3" spans="4:12">
       <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
       <c r="I3" s="7"/>
@@ -817,10 +832,10 @@
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="4:12">
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -828,7 +843,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="2:12" hidden="1">
+    <row r="5" spans="4:12" hidden="1">
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
@@ -857,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="4:12">
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
@@ -876,16 +891,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="I1:J1048576 D5:E1048576">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula xml:space="preserve"> AND(D1&lt;&gt;"", E1&lt;&gt;"", F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
+  <conditionalFormatting sqref="D5:L1048576">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula xml:space="preserve"> OR(AND($E5&lt;&gt;"", $F5=""), AND($J5&lt;&gt;"", $K5=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula xml:space="preserve"> OR($H5 = "!", $H5 = "&lt;", $H5 = "&gt;")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D4">
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula xml:space="preserve"> AND(D1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D4 G1:L4">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula xml:space="preserve"> OR(AND(#REF!&lt;&gt;"", #REF!=""), AND($J1&lt;&gt;"", $K1=""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>
